--- a/data_simplemodel.xlsx
+++ b/data_simplemodel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\TU\MSc 1\Q1\Operations Optimization\Assignment\vehicle_routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D690B4-9578-420D-8C65-46C0E31D4CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81600092-5EFF-4080-AAD9-79A66222C288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C741B167-ACA2-47B3-9CB6-309E9AB7D686}"/>
+    <workbookView xWindow="0" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{C741B167-ACA2-47B3-9CB6-309E9AB7D686}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>12</v>
